--- a/sales_analysis_report.xlsx
+++ b/sales_analysis_report.xlsx
@@ -1,17 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manoj.Devisetti\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF22D18-9688-4964-83A1-C86C4CDB189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Summary Stats" sheetId="2" r:id="rId2"/>
     <sheet name="Correlations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Raw Data'!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Raw Data'!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Raw Data'!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Raw Data'!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Raw Data'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Raw Data'!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Raw Data'!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Raw Data'!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Raw Data'!$D$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Raw Data'!$D$2:$D$13</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -57,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +139,2153 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Product A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C4542D35-753B-4B6A-888E-D1C82758DBAD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Product A</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Product B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{211CDB8F-0447-4796-BC4F-F5BF15FFC77D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Product B</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Product C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{07C62C42-DE4E-442E-A05D-A78BC68603AA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Product C</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA7D6D8-237B-3C2F-8FB3-2B8FD02FBA25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3482975" y="120650"/>
+              <a:ext cx="3146425" cy="2019300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8BF8CA-32EF-C216-DDEE-42BEEC938A98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6715125" y="139700"/>
+              <a:ext cx="3749675" cy="2006600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D33FD1-5ADE-C119-78AA-B4D3E6972D99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5489575" y="2330450"/>
+              <a:ext cx="3387725" cy="1943100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +2323,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -199,6 +2357,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,9 +2392,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,14 +2568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -449,7 +2611,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -466,7 +2628,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -483,7 +2645,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -500,7 +2662,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -517,7 +2679,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -534,7 +2696,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -551,7 +2713,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -568,7 +2730,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -585,7 +2747,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -602,7 +2764,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -619,7 +2781,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -638,18 +2800,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -669,12 +2832,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>187.6666666666667</v>
+        <v>187.66666666666671</v>
       </c>
       <c r="C2">
         <v>187.5</v>
@@ -686,18 +2849,18 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>129.6969696969697</v>
+        <v>129.69696969696969</v>
       </c>
       <c r="G2">
         <v>11.38845774005285</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74.58333333333333</v>
+        <v>74.583333333333329</v>
       </c>
       <c r="C3">
         <v>74</v>
@@ -709,18 +2872,18 @@
         <v>24</v>
       </c>
       <c r="F3">
-        <v>63.3560606060606</v>
+        <v>63.356060606060602</v>
       </c>
       <c r="G3">
-        <v>7.95965204051412</v>
+        <v>7.9596520405141202</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>246.9166666666667</v>
+        <v>246.91666666666671</v>
       </c>
       <c r="C4">
         <v>247.5</v>
@@ -744,40 +2907,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9721091322992318</v>
+        <v>0.97210913229923179</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9804991516860871</v>
+        <v>0.98049915168608714</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.9113385294827854</v>
+        <v>-0.91133852948278538</v>
       </c>
     </row>
   </sheetData>
